--- a/data/trans_bre/P23_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,26</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,59</t>
+          <t>-19,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-37,99%</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-38,53%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>-46,79%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-31,69%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>88,45%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 3,41</t>
+          <t>-13,88; 20,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 1,2</t>
+          <t>-53,08; 3,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 7,73</t>
+          <t>-16,51; 10,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-75,67; 29,17</t>
+          <t>-5,16; 25,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-71,23; 6,73</t>
+          <t>-49,99; 200,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 138,31</t>
+          <t>-86,83; 15,49</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-86,78; 278,1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-39,78; 831,78</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>-20,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,08%</t>
+          <t>-26,09%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-38,9%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53,44%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 6,67</t>
+          <t>-9,32; 4,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 7,72</t>
+          <t>-15,45; 3,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 4,4</t>
+          <t>-21,68; 0,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,71; 72,53</t>
+          <t>-3,46; 9,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 91,89</t>
+          <t>-56,6; 50,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,82; 39,3</t>
+          <t>-64,55; 42,09</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-71,37; 9,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-35,0; 250,81</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,69</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53,14%</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>103,12%</t>
+          <t>71,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>69,58%</t>
+          <t>72,7%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23,86%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-18,95%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 10,07</t>
+          <t>-1,49; 13,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 16,04</t>
+          <t>0,43; 17,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 14,7</t>
+          <t>-6,67; 12,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 180,89</t>
+          <t>-11,6; 6,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,52; 251,59</t>
+          <t>-13,81; 240,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 193,0</t>
+          <t>-0,4; 200,75</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-33,36; 135,65</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-66,27; 91,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 4,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 5,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 42,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 61,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 53,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,97</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-4,27%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-17,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 7,35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-10,55; 5,32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 2,85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 7,54</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-18,99; 73,78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-40,6; 40,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-48,36; 23,36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-21,81; 114,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-19,61</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,57</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,63</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>26,81%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-46,79%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-31,69%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>88,45%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.9764541933870413</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-18.79331533773992</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.605934770411434</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.912929447867127</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.04980712473510654</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4718606493751057</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.3311748114658999</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.02928233806867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,88; 20,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-53,08; 3,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,51; 10,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 25,65</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-49,99; 200,24</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-86,83; 15,49</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-86,78; 278,1</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-39,78; 831,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.69539845075166</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-50.82462392736564</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.77601221161288</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.951288014838288</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.6008961522368924</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.8436198641616869</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8799290991698453</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3449380719284531</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.13804062252821</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.815965589296594</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.944492440175713</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>28.71561088515842</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.539744826577398</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1599714299106411</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.475196919976155</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>10.34898471435194</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,59</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,06</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-7,66</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,57</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-20,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-26,09%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-38,9%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>53,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,32; 4,03</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-15,45; 3,72</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,68; 0,79</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 9,38</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-56,6; 50,99</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-64,55; 42,09</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-71,37; 9,71</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-35,0; 250,81</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.113965256350558</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.411721325816776</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-7.559432932548692</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.34370282379637</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.07854686226691805</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1668402199404387</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3885743878578578</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5296789458668775</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,39</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,32</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>71,41%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>72,7%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>23,86%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-18,95%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.557954678014228</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.01133725621222</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-20.57093903626899</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.467377654011476</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5402585659544333</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6036942690196196</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.7102921170844697</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.381864306943916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 13,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 17,75</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 12,04</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,6; 6,02</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-13,81; 240,9</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 200,75</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-33,36; 135,65</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-66,27; 91,04</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.105296684755262</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.916508116439298</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.7836789799526807</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.764926971298904</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.7351274758913682</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.5295397361636734</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.08038079277781801</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.42292137460999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.036666275055746</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.534013278140803</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.828697410336203</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.417007281115542</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.4723682132931218</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.6250721717736095</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1982973026972842</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1953349204983936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.613290803615175</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.619625522441276</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.795610703630324</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.0326973229331</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.390838096424913</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1182340366327321</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3631071918534692</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.665980805599004</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.06354191929805</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.97444072427611</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.41693451653487</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.262424208192657</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.905196112851116</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.856604790310548</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.3123163670341</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.9044277691548059</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,97</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>16,07%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-4,27%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-17,95%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>29,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 7,35</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,55; 5,32</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,79; 2,85</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 7,54</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-18,99; 73,78</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-40,6; 40,36</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-48,36; 23,36</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-21,81; 114,57</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.572463367235419</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.06500316426284181</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.277161703690298</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.807772304839723</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1157755692190005</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.003727245187283324</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1990335964684839</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3154678099655014</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.010069283000596</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.08817986428628</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-10.7952696762526</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.964027800413647</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2465630918760305</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3487712868125409</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4958680713493955</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1996305190054964</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.342297244035236</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.94476037808999</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.50109049500275</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.884336224674997</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.676054813233546</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4418194121028148</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1960623762230668</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.174814024418447</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
